--- a/doc-checker/doc_checker/cleaned_data.xlsx
+++ b/doc-checker/doc_checker/cleaned_data.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unit name</t>
+          <t>Tenant first name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Tenant last name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Tenant email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Unit Purpose</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,17 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Tenant phone number</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>No. of bedrooms</t>
+          <t>Tenant identification card</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>No. of balconies</t>
+          <t>Tenant identification number</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
